--- a/InputData/endo-learn/PDiBCpDoC/Perc Decline in Battery Cost per Doubling of Cap.xlsx
+++ b/InputData/endo-learn/PDiBCpDoC/Perc Decline in Battery Cost per Doubling of Cap.xlsx
@@ -20,18 +20,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>http://about.bnef.com/content/uploads/sites/4/2015/04/Final-keynote_ML.pdf</t>
-  </si>
-  <si>
-    <t>Slide 12</t>
-  </si>
-  <si>
-    <t>Bloomberg New Energy Finance Summit 2015 Keynote</t>
-  </si>
-  <si>
-    <t>Michael Liebreich</t>
-  </si>
-  <si>
     <t>Perc Decline per Doubling</t>
   </si>
   <si>
@@ -39,6 +27,18 @@
   </si>
   <si>
     <t>PDiBCpDoC Perc Decline in Battery Cost per Doubling of Capacity</t>
+  </si>
+  <si>
+    <t>Bloomberg New Energy Finance</t>
+  </si>
+  <si>
+    <t>New Energy Outlook 2018</t>
+  </si>
+  <si>
+    <t>Chapter 6, Page 2, Figure at bottom of column 2 (online)</t>
+  </si>
+  <si>
+    <t>https://bnef.turtl.co/story/neo2018</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -410,22 +410,22 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -449,15 +449,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.216</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
